--- a/results/metric_df/PNA_metrics.xlsx
+++ b/results/metric_df/PNA_metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,35 +451,45 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>sum_SASA</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>max_SASA</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>flexibility</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>theta</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>conformation</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>monosaccharides</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>motifs</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>class</t>
         </is>
@@ -498,30 +508,36 @@
         <v>2.80914078282125</v>
       </c>
       <c r="D2" t="n">
+        <v>5.6182815656425</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.041646710200382</v>
+      </c>
+      <c r="F2" t="n">
         <v>0.2655432209887656</v>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
         <v>0.4375</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>4.95</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>['Gal(b1-3)', 'GalNAc(a1-1)']</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3)GalNAc']</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)GalNAc']</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -540,30 +556,36 @@
         <v>2.659431920590732</v>
       </c>
       <c r="D3" t="n">
+        <v>5.318863841181464</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.673333100810235</v>
+      </c>
+      <c r="F3" t="n">
         <v>3.562389572290562</v>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
         <v>0.473</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>1.565</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
         <is>
           <t>['Gal(b1-3)', 'GalNAc(b1-3)']</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3)GalNAc']</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)GalNAc']</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -582,30 +604,36 @@
         <v>2.596490948763077</v>
       </c>
       <c r="D4" t="n">
+        <v>5.192981897526153</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.597460735209333</v>
+      </c>
+      <c r="F4" t="n">
         <v>7.206390000000002</v>
       </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
         <v>0.465</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>11.895</v>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>['Gal(b1-3)', 'GalNAc(b1-3)']</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3)GalNAc']</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)GalNAc']</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -624,30 +652,36 @@
         <v>2.545194458515379</v>
       </c>
       <c r="D5" t="n">
+        <v>5.090388917030758</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2.595288970498892</v>
+      </c>
+      <c r="F5" t="n">
         <v>3.446348222320626</v>
       </c>
-      <c r="E5" t="n">
+      <c r="G5" t="n">
         <v>0.4605</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>3.315</v>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>['Gal(b1-3)', 'GalNAc(b1-4)']</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3)GalNAc']</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)GalNAc']</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -666,30 +700,36 @@
         <v>2.227581134929226</v>
       </c>
       <c r="D6" t="n">
+        <v>4.455162269858452</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2.528652387176547</v>
+      </c>
+      <c r="F6" t="n">
         <v>4.613883333333333</v>
       </c>
-      <c r="E6" t="n">
+      <c r="G6" t="n">
         <v>0.4505</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
         <v>9.254999999999999</v>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>['Gal(b1-3)', 'GalNAc(b1-4)']</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3)GalNAc']</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)GalNAc']</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -708,30 +748,36 @@
         <v>2.303025462805305</v>
       </c>
       <c r="D7" t="n">
+        <v>4.60605092561061</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.340246256923699</v>
+      </c>
+      <c r="F7" t="n">
         <v>2.15073</v>
       </c>
-      <c r="E7" t="n">
+      <c r="G7" t="n">
         <v>0.458</v>
       </c>
-      <c r="F7" t="n">
+      <c r="H7" t="n">
         <v>14.845</v>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>['Gal(b1-3)', 'GalNAc(a1-1)']</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3)GalNAc']</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)GalNAc']</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -750,30 +796,36 @@
         <v>2.137772025223793</v>
       </c>
       <c r="D8" t="n">
+        <v>4.275544050447586</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2.254148443376134</v>
+      </c>
+      <c r="F8" t="n">
         <v>1.94865</v>
       </c>
-      <c r="E8" t="n">
+      <c r="G8" t="n">
         <v>0.4805</v>
       </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
         <v>6.46</v>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>['Gal(b1-3)', 'GalNAc(a1-1)']</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3)GalNAc']</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)GalNAc']</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -792,30 +844,36 @@
         <v>2.239803752931464</v>
       </c>
       <c r="D9" t="n">
+        <v>4.479607505862927</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.302631596004201</v>
+      </c>
+      <c r="F9" t="n">
         <v>2.6737</v>
       </c>
-      <c r="E9" t="n">
+      <c r="G9" t="n">
         <v>0.4675</v>
       </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
         <v>6.824999999999999</v>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>['Gal(b1-3)', 'GalNAc(a1-1)']</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3)GalNAc']</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)GalNAc']</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -834,30 +892,36 @@
         <v>2.270806597458007</v>
       </c>
       <c r="D10" t="n">
+        <v>4.541613194916014</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.305444953997026</v>
+      </c>
+      <c r="F10" t="n">
         <v>5.737725</v>
       </c>
-      <c r="E10" t="n">
+      <c r="G10" t="n">
         <v>0.459</v>
       </c>
-      <c r="F10" t="n">
+      <c r="H10" t="n">
         <v>7.68</v>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>['Gal(b1-3)', 'GalNAc(a1-1)']</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3)GalNAc']</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)GalNAc']</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -876,30 +940,36 @@
         <v>2.390474967985425</v>
       </c>
       <c r="D11" t="n">
+        <v>4.780949935970851</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2.467945786510408</v>
+      </c>
+      <c r="F11" t="n">
         <v>11.33917857142857</v>
       </c>
-      <c r="E11" t="n">
+      <c r="G11" t="n">
         <v>0.4945000000000001</v>
       </c>
-      <c r="F11" t="n">
+      <c r="H11" t="n">
         <v>2.525</v>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>['Gal(b1-3)', 'GalNAc(a1-1)']</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3)GalNAc']</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)GalNAc']</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -918,30 +988,36 @@
         <v>2.301597859403619</v>
       </c>
       <c r="D12" t="n">
+        <v>4.603195718807239</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2.368503450093663</v>
+      </c>
+      <c r="F12" t="n">
         <v>9.623180000000001</v>
       </c>
-      <c r="E12" t="n">
+      <c r="G12" t="n">
         <v>0.4535</v>
       </c>
-      <c r="F12" t="n">
+      <c r="H12" t="n">
         <v>10.51</v>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
         <is>
           <t>['Gal(b1-3)', 'GalNAc(a1-1)']</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3)GalNAc']</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)GalNAc']</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -960,30 +1036,36 @@
         <v>2.411049928825561</v>
       </c>
       <c r="D13" t="n">
+        <v>4.822099857651121</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2.6094836119382</v>
+      </c>
+      <c r="F13" t="n">
         <v>12.57778333333333</v>
       </c>
-      <c r="E13" t="n">
+      <c r="G13" t="n">
         <v>0.48</v>
       </c>
-      <c r="F13" t="n">
+      <c r="H13" t="n">
         <v>7.56</v>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>['Gal(b1-3)', 'GalNAc(b1-4)']</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3)GalNAc']</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)GalNAc']</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>

--- a/results/metric_df/PNA_metrics.xlsx
+++ b/results/metric_df/PNA_metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,17 +446,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>SASA</t>
+          <t>monosaccharides</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>sum_SASA</t>
+          <t>motifs</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>max_SASA</t>
+          <t>sasa</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -466,32 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>theta</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>conformation</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>monosaccharides</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>motifs</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>class</t>
+          <t>has_multi_node_motifs</t>
         </is>
       </c>
     </row>
@@ -504,43 +479,24 @@
       <c r="B2" t="n">
         <v>2.286414187922931</v>
       </c>
-      <c r="C2" t="n">
-        <v>2.80914078282125</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)', 'GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)GalNAc']</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>5.6182815656425</v>
       </c>
-      <c r="E2" t="n">
-        <v>3.041646710200382</v>
-      </c>
       <c r="F2" t="n">
-        <v>0.2655432209887656</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.4375</v>
-      </c>
-      <c r="H2" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3)', 'GalNAc(a1-1)']</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3)GalNAc']</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
+        <v>0.2218727152890093</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -552,43 +508,24 @@
       <c r="B3" t="n">
         <v>0.4314831321072782</v>
       </c>
-      <c r="C3" t="n">
-        <v>2.659431920590732</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)', 'GalNAc(b1-3)']</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)GalNAc']</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>5.318863841181464</v>
       </c>
-      <c r="E3" t="n">
-        <v>2.673333100810235</v>
-      </c>
       <c r="F3" t="n">
-        <v>3.562389572290562</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.473</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1.565</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3)', 'GalNAc(b1-3)']</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3)GalNAc']</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>lipid/free</t>
-        </is>
+        <v>1.488264404525693</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -600,43 +537,24 @@
       <c r="B4" t="n">
         <v>1.743971301105321</v>
       </c>
-      <c r="C4" t="n">
-        <v>2.596490948763077</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)', 'GalNAc(b1-3)']</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)GalNAc']</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
         <v>5.192981897526153</v>
       </c>
-      <c r="E4" t="n">
-        <v>2.597460735209333</v>
-      </c>
       <c r="F4" t="n">
-        <v>7.206390000000002</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.465</v>
-      </c>
-      <c r="H4" t="n">
-        <v>11.895</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3)', 'GalNAc(b1-3)']</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3)GalNAc']</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>lipid/free</t>
-        </is>
+        <v>3.010623488669683</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -648,43 +566,24 @@
       <c r="B5" t="n">
         <v>4.312126259203748</v>
       </c>
-      <c r="C5" t="n">
-        <v>2.545194458515379</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)', 'GalNAc(b1-4)']</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)GalNAc']</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
         <v>5.090388917030758</v>
       </c>
-      <c r="E5" t="n">
-        <v>2.595288970498892</v>
-      </c>
       <c r="F5" t="n">
-        <v>3.446348222320626</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.4605</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3.315</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3)', 'GalNAc(b1-4)']</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3)GalNAc']</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>lipid/free</t>
-        </is>
+        <v>1.727742779658633</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -696,43 +595,24 @@
       <c r="B6" t="n">
         <v>1.811780285560039</v>
       </c>
-      <c r="C6" t="n">
-        <v>2.227581134929226</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)', 'GalNAc(b1-4)']</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)GalNAc']</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
         <v>4.455162269858452</v>
       </c>
-      <c r="E6" t="n">
-        <v>2.528652387176547</v>
-      </c>
       <c r="F6" t="n">
-        <v>4.613883333333333</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.4505</v>
-      </c>
-      <c r="H6" t="n">
-        <v>9.254999999999999</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3)', 'GalNAc(b1-4)']</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3)GalNAc']</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>lipid/free</t>
-        </is>
+        <v>1.92754840319701</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -744,43 +624,24 @@
       <c r="B7" t="n">
         <v>3.401085968701475</v>
       </c>
-      <c r="C7" t="n">
-        <v>2.303025462805305</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)', 'GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)GalNAc']</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
         <v>4.60605092561061</v>
       </c>
-      <c r="E7" t="n">
-        <v>2.340246256923699</v>
-      </c>
       <c r="F7" t="n">
-        <v>2.15073</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.458</v>
-      </c>
-      <c r="H7" t="n">
-        <v>14.845</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3)', 'GalNAc(a1-1)']</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3)GalNAc']</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
+        <v>1.347770157274283</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -792,43 +653,24 @@
       <c r="B8" t="n">
         <v>1.153970235235721</v>
       </c>
-      <c r="C8" t="n">
-        <v>2.137772025223793</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)', 'GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)GalNAc']</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
         <v>4.275544050447586</v>
       </c>
-      <c r="E8" t="n">
-        <v>2.254148443376134</v>
-      </c>
       <c r="F8" t="n">
-        <v>1.94865</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.4805</v>
-      </c>
-      <c r="H8" t="n">
-        <v>6.46</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3)', 'GalNAc(a1-1)']</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3)GalNAc']</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
+        <v>1.221135296839925</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -840,43 +682,24 @@
       <c r="B9" t="n">
         <v>5.00414369387</v>
       </c>
-      <c r="C9" t="n">
-        <v>2.239803752931464</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)', 'GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)GalNAc']</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
         <v>4.479607505862927</v>
       </c>
-      <c r="E9" t="n">
-        <v>2.302631596004201</v>
-      </c>
       <c r="F9" t="n">
-        <v>2.6737</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.4675</v>
-      </c>
-      <c r="H9" t="n">
-        <v>6.824999999999999</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3)', 'GalNAc(a1-1)']</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3)GalNAc']</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
+        <v>1.340394403576181</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -888,43 +711,24 @@
       <c r="B10" t="n">
         <v>5.044309928408428</v>
       </c>
-      <c r="C10" t="n">
-        <v>2.270806597458007</v>
-      </c>
-      <c r="D10" t="n">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)', 'GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)GalNAc']</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
         <v>4.541613194916014</v>
       </c>
-      <c r="E10" t="n">
-        <v>2.305444953997026</v>
-      </c>
       <c r="F10" t="n">
-        <v>5.737725</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.459</v>
-      </c>
-      <c r="H10" t="n">
-        <v>7.68</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3)', 'GalNAc(a1-1)']</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3)GalNAc']</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
+        <v>2.397057286176193</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -936,43 +740,24 @@
       <c r="B11" t="n">
         <v>1.425558825367835</v>
       </c>
-      <c r="C11" t="n">
-        <v>2.390474967985425</v>
-      </c>
-      <c r="D11" t="n">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)', 'GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)GalNAc']</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
         <v>4.780949935970851</v>
       </c>
-      <c r="E11" t="n">
-        <v>2.467945786510408</v>
-      </c>
       <c r="F11" t="n">
-        <v>11.33917857142857</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.4945000000000001</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2.525</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3)', 'GalNAc(a1-1)']</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3)GalNAc']</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
+        <v>3.552888202279101</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -984,43 +769,24 @@
       <c r="B12" t="n">
         <v>-0.0676529266794538</v>
       </c>
-      <c r="C12" t="n">
-        <v>2.301597859403619</v>
-      </c>
-      <c r="D12" t="n">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)', 'GalNAc(a1-1)']</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)GalNAc']</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
         <v>4.603195718807239</v>
       </c>
-      <c r="E12" t="n">
-        <v>2.368503450093663</v>
-      </c>
       <c r="F12" t="n">
-        <v>9.623180000000001</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.4535</v>
-      </c>
-      <c r="H12" t="n">
-        <v>10.51</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3)', 'GalNAc(a1-1)']</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3)GalNAc']</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
+        <v>3.445962154266222</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1032,43 +798,24 @@
       <c r="B13" t="n">
         <v>0.8524725682829973</v>
       </c>
-      <c r="C13" t="n">
-        <v>2.411049928825561</v>
-      </c>
-      <c r="D13" t="n">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)', 'GalNAc(b1-4)']</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3)GalNAc']</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
         <v>4.822099857651121</v>
       </c>
-      <c r="E13" t="n">
-        <v>2.6094836119382</v>
-      </c>
       <c r="F13" t="n">
-        <v>12.57778333333333</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="H13" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3)', 'GalNAc(b1-4)']</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3)GalNAc']</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>lipid/free</t>
-        </is>
+        <v>3.940978416939485</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
